--- a/data/trans_dic/P22$concerEmp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,29 +725,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,29</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,32</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 3,11</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,35</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 3,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 2,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,78</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 0,75</t>
@@ -754,39 +755,39 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,64</t>
+          <t>0,19; 1,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,38</t>
+          <t>0,15; 1,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,93</t>
+          <t>0,17; 1,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,68</t>
+          <t>0,09; 1,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,88</t>
+          <t>0,86; 3,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,79</t>
+          <t>0,37; 2,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,73</t>
+          <t>0,45; 2,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,98</t>
+          <t>0,51; 1,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,5</t>
+          <t>0,22; 1,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,46</t>
+          <t>0,33; 1,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1030,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,4</t>
+          <t>0,26; 2,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1050,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,32</t>
+          <t>0,14; 1,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,82</t>
+          <t>0,27; 1,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,71</t>
+          <t>0,31; 2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,31</t>
+          <t>0,53; 3,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,05</t>
+          <t>1,07; 4,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,33</t>
+          <t>0,85; 5,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,14</t>
+          <t>0,52; 3,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,39</t>
+          <t>0,15; 1,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,26</t>
+          <t>0,6; 2,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,94</t>
+          <t>0,41; 1,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,69</t>
+          <t>0,74; 2,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,43</t>
+          <t>0,5; 2,53</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,12</t>
+          <t>2,4; 9,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,12 +1310,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,43</t>
+          <t>0,46; 4,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,29 +1325,29 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 5,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,58</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 5,34</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,24</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1449,17 +1450,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,17; 1,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,22 +1570,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,37</t>
+          <t>0,15; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,88</t>
+          <t>2,44; 6,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,28</t>
+          <t>0,15; 1,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,53</t>
+          <t>0,57; 2,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1610,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,88</t>
+          <t>0,14; 0,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,99</t>
+          <t>0,15; 1,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,53</t>
+          <t>1,36; 3,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,58</t>
+          <t>4,95; 8,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,16</t>
+          <t>0,38; 2,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,53</t>
+          <t>0,18; 1,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,88</t>
+          <t>0,46; 1,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,34</t>
+          <t>0,29; 1,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,88</t>
+          <t>2,86; 4,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,2</t>
+          <t>0,26; 1,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,73</t>
+          <t>0,07; 0,63</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,16</t>
+          <t>0,32; 1,17</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,85</t>
+          <t>1,8; 2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,95</t>
+          <t>0,34; 0,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,91</t>
+          <t>0,97; 1,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,85</t>
+          <t>0,33; 0,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,62</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,59</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,59</t>
-        </is>
-      </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,96</t>
+          <t>0,43; 0,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,7</t>
+          <t>1,12; 1,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,99</t>
+          <t>0,55; 1,02</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,7</t>
+          <t>0,32; 0,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,29</t>
+          <t>0,79; 1,29</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado por su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2742</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2039</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2742</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3511</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6236</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>882; 7527</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>966; 9764</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>172; 9683</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6126</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5868</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2696</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9461</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>886; 8297</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1001; 10424</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>530; 10829</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6198</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11034</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7575</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4228; 17555</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1871; 14051</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2308; 13501</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4934</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6374</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4986</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5080; 19298</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2255; 16017</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3449; 16338</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2783</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3837</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5120</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2386</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6546</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9054</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5754</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7189</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>888; 8474</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5599</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>944; 8758</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1751; 11481</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7409</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9156</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7156</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9128</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10918</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9328</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1102; 9588</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1971; 11301</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3946; 17668</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2648; 16309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1941; 11367</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6594</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6235</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>710; 6021</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4368; 17087</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3104; 14660</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5581; 20694</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3973; 19954</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10718</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14658</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6526</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5098; 19259</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3646</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1011; 9785</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4712</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 813</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6554</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7898; 24484</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6782</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3273</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5648</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6299</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5077</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5717</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3115</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6328</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>945; 9026</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5117</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3246</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24373</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12446</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7744</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4970</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5877</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36819</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2686; 12162</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1000; 9238</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 9317</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15214; 37566</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6663</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4930</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1004; 8088</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4798; 21713</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3715; 14801</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1917; 11137</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2044; 14977</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20106; 52150</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>48989</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7373</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6296</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2249</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4786</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>56825</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>9542</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3648</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>11082</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>36680; 65075</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2977; 16452</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7597</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1639; 14093</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3582; 14286</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7946</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7780</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2077; 10373</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>43596; 73465</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4098; 19405</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1089; 10110</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>5291; 19248</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>73335</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>39387</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>48766</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>23200</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>91553</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>52463</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>31935</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>71966</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>58910; 91539</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>27146; 53641</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>11358; 31139</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>33658; 66724</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>11173; 28937</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>7093; 22154</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6866; 21055</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>15751; 33438</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>74200; 112004</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>38600; 70893</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>22121; 45723</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>56288; 91591</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>